--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150486.728795656</v>
+        <v>151720.0458732208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654756</v>
+        <v>19282386.12654755</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5444720.390550637</v>
+        <v>5432738.938446768</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>350.6803517093765</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>112.3865163399139</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -817,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>137.6973304052482</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>220.0360197011783</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>35.62225731619051</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>143.4324547506684</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>88.66266823451896</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>68.83205621563006</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1133,16 +1135,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>113.3010685731256</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>143.4324547506683</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>34.79484432979879</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>114.7380594336481</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1373,13 +1375,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>143.4324547506684</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>111.5422858787864</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>141.3043135059329</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>34.79484432979879</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>160.5454463071765</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>131.975558987749</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.09444105482045</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1844,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>73.22729648677937</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>166.6548991966265</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>28.12723255529686</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2059,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>58.67748875058538</v>
+        <v>112.3865163399137</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2256,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>123.9086344760397</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2321,16 +2323,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>58.67748875058466</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>119.0131614123048</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2485,13 +2487,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>101.2859609752526</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2555,19 +2557,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>120.7719441066429</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>87.12299254042303</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2722,7 +2724,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>155.4921773682123</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>105.0776360235093</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>53.03228358185952</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>74.03169761275359</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>187.7303633741245</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1055716303395</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>203.6542894271434</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>203.0845722362935</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>58.67748875058447</v>
       </c>
     </row>
     <row r="36">
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.94722270604733</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3506,22 +3508,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>76.59702328455086</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>71.94762989914921</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>23.33741930671837</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>228.0996351671467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.91139281444845</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>73.70641259348736</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>24.86535359721408</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>19.53872709080452</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>203.4827219821285</v>
+        <v>121.1493443820672</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>100.8123657859486</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1312.229525073126</v>
+        <v>818.0352999317454</v>
       </c>
       <c r="C2" t="n">
-        <v>885.3287950864262</v>
+        <v>391.1345699450455</v>
       </c>
       <c r="D2" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E2" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L2" t="n">
-        <v>950.4838058662885</v>
+        <v>475.2419029331442</v>
       </c>
       <c r="M2" t="n">
-        <v>1407.269712569019</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N2" t="n">
-        <v>1407.269712569019</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V2" t="n">
-        <v>1732.077889364656</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="W2" t="n">
-        <v>1732.077889364656</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.077889364656</v>
+        <v>818.0352999317454</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.077889364656</v>
+        <v>818.0352999317454</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922819</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.5295800097866</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="L3" t="n">
-        <v>393.2225928484409</v>
+        <v>950.4838058662882</v>
       </c>
       <c r="M3" t="n">
-        <v>393.2225928484409</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N3" t="n">
-        <v>393.2225928484409</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O3" t="n">
-        <v>850.0084995511718</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S3" t="n">
         <v>1764.275375602591</v>
@@ -4449,10 +4451,10 @@
         <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590522</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123446</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1734365055867</v>
+        <v>1015.616490764048</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1734365055867</v>
+        <v>843.6439276429637</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1734365055867</v>
+        <v>680.3271547697344</v>
       </c>
       <c r="E4" t="n">
-        <v>346.9652306584402</v>
+        <v>514.1189489225879</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>342.2571746971483</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>176.0002049913805</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>76.2056552989647</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>430.8949765933855</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>822.0807715636363</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1199.572282439672</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1555.000411119435</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1675.464575560471</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.940779286676</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="V4" t="n">
-        <v>929.6821735279102</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="W4" t="n">
-        <v>929.6821735279102</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="X4" t="n">
-        <v>929.6821735279102</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="Y4" t="n">
-        <v>703.3394052176523</v>
+        <v>1205.782459476113</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>608.6939898724443</v>
+        <v>72.89407055798887</v>
       </c>
       <c r="C5" t="n">
-        <v>181.7932598857444</v>
+        <v>72.89407055798887</v>
       </c>
       <c r="D5" t="n">
-        <v>181.7932598857444</v>
+        <v>72.89407055798887</v>
       </c>
       <c r="E5" t="n">
-        <v>181.7932598857444</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>181.7932598857444</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662885</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="M5" t="n">
-        <v>950.4838058662885</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662885</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O5" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
         <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817717</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817717</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>492.7424348495189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1028.542354163974</v>
+        <v>492.7424348495189</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.0354834922819</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097866</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
         <v>90.28808569851708</v>
@@ -4641,40 +4643,40 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023296</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050604</v>
+        <v>475.2419029331442</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050604</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511718</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253903</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S6" t="n">
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590522</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123446</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C7" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D7" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E7" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F7" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G7" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
-        <v>36.91199246082674</v>
+        <v>76.2056552989647</v>
       </c>
       <c r="L7" t="n">
-        <v>391.6013137552475</v>
+        <v>430.8949765933855</v>
       </c>
       <c r="M7" t="n">
-        <v>782.7871087254983</v>
+        <v>822.0807715636363</v>
       </c>
       <c r="N7" t="n">
-        <v>1160.278619601534</v>
+        <v>1199.572282439672</v>
       </c>
       <c r="O7" t="n">
-        <v>1515.706748281297</v>
+        <v>1555.000411119435</v>
       </c>
       <c r="P7" t="n">
-        <v>1806.305960203198</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1776.072293530599</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>1532.732945756499</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1252.548497256803</v>
       </c>
       <c r="V7" t="n">
-        <v>870.229311894705</v>
+        <v>970.8370298648322</v>
       </c>
       <c r="W7" t="n">
-        <v>595.376908067218</v>
+        <v>695.9846260373453</v>
       </c>
       <c r="X7" t="n">
-        <v>352.8130115130231</v>
+        <v>453.4207294831504</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.4702432027651</v>
+        <v>227.0779611728924</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1425.751258749807</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.305734938569</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D8" t="n">
-        <v>888.013114123569</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="L8" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="M8" t="n">
         <v>856.3013579804531</v>
       </c>
-      <c r="L8" t="n">
-        <v>932.027809635875</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1388.813716338606</v>
-      </c>
       <c r="N8" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4841,13 +4843,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1700.718355616419</v>
       </c>
       <c r="X8" t="n">
-        <v>1845.599623041337</v>
+        <v>1288.998356784166</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.599623041337</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484407</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L9" t="n">
-        <v>393.2225928484407</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511716</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N9" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q9" t="n">
         <v>1763.580312956633</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.7082609526723</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C10" t="n">
-        <v>180.7082609526723</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D10" t="n">
-        <v>180.7082609526723</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E10" t="n">
-        <v>180.7082609526723</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F10" t="n">
-        <v>180.7082609526723</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>72.05829986466389</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>76.20565529896515</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1729.702593310379</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1486.363245536279</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1206.178797036583</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>924.4673296446122</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W10" t="n">
-        <v>649.6149258171253</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X10" t="n">
-        <v>407.0510292629303</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.7082609526723</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>608.6939898724443</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C11" t="n">
-        <v>181.7932598857444</v>
+        <v>998.8505287631067</v>
       </c>
       <c r="D11" t="n">
-        <v>36.91199246082674</v>
+        <v>575.557907948107</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082674</v>
+        <v>149.5809680959645</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>856.3013579804531</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="L11" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M11" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N11" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O11" t="n">
-        <v>856.3013579804531</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P11" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q11" t="n">
         <v>1728.043288159434</v>
@@ -5081,10 +5083,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X11" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1028.542354163974</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L12" t="n">
-        <v>1222.18129514588</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M12" t="n">
-        <v>1388.813716338606</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N12" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="O12" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q12" t="n">
         <v>1845.599623041337</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.6436222647994</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C13" t="n">
-        <v>36.91199246082674</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D13" t="n">
-        <v>36.91199246082674</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E13" t="n">
-        <v>36.91199246082674</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F13" t="n">
-        <v>36.91199246082674</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>72.05829986466389</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>76.20565529896515</v>
@@ -5224,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T13" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U13" t="n">
-        <v>1395.280127060776</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V13" t="n">
-        <v>1113.568659668805</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W13" t="n">
-        <v>838.7162558413179</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X13" t="n">
-        <v>596.152359287123</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y13" t="n">
-        <v>369.809590976865</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>887.1053432625264</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="C14" t="n">
-        <v>460.2046132758265</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="D14" t="n">
-        <v>36.91199246082674</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082674</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>603.4181723533745</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>199.0791099428232</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>357.6855680512415</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L14" t="n">
-        <v>357.6855680512415</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M14" t="n">
-        <v>814.4714747539724</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N14" t="n">
-        <v>1271.257381456703</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O14" t="n">
-        <v>1728.043288159434</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P14" t="n">
         <v>1728.043288159434</v>
@@ -5318,10 +5320,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X14" t="n">
-        <v>1712.290977599166</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y14" t="n">
-        <v>1306.953707554057</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="15">
@@ -5337,46 +5339,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>475.2419029331439</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L15" t="n">
-        <v>475.2419029331439</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M15" t="n">
-        <v>475.2419029331439</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N15" t="n">
-        <v>932.0278096358747</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O15" t="n">
-        <v>932.0278096358747</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.91199246082674</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C16" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D16" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E16" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L16" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N16" t="n">
-        <v>1444.297549031529</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O16" t="n">
-        <v>1799.725677711293</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P16" t="n">
         <v>1845.599623041337</v>
@@ -5458,28 +5460,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U16" t="n">
-        <v>1104.902165973849</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V16" t="n">
-        <v>823.1906985818782</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W16" t="n">
-        <v>548.3382947543912</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X16" t="n">
-        <v>305.7743982001963</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43162988993831</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1366.319142682382</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C17" t="n">
-        <v>1366.319142682382</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D17" t="n">
-        <v>1366.319142682382</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E17" t="n">
-        <v>940.3422028302399</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F17" t="n">
-        <v>515.2180210196401</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G17" t="n">
-        <v>110.8789586090887</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K17" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L17" t="n">
-        <v>1313.087264683184</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M17" t="n">
-        <v>1389.514143537154</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N17" t="n">
-        <v>1389.514143537154</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O17" t="n">
         <v>1389.514143537154</v>
@@ -5543,22 +5545,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U17" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V17" t="n">
-        <v>1366.319142682382</v>
+        <v>1677.261341024542</v>
       </c>
       <c r="W17" t="n">
-        <v>1366.319142682382</v>
+        <v>1280.869991324889</v>
       </c>
       <c r="X17" t="n">
-        <v>1366.319142682382</v>
+        <v>869.1499924926363</v>
       </c>
       <c r="Y17" t="n">
-        <v>1366.319142682382</v>
+        <v>463.8127224475267</v>
       </c>
     </row>
     <row r="18">
@@ -5574,46 +5576,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6978991635576</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="M18" t="n">
-        <v>950.4838058662885</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N18" t="n">
-        <v>950.4838058662885</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O18" t="n">
-        <v>1407.269712569019</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.4393219715645</v>
+        <v>719.2109140204152</v>
       </c>
       <c r="C19" t="n">
-        <v>36.91199246082674</v>
+        <v>547.2383508993312</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>547.2383508993312</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>547.2383508993312</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>375.3765766738916</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>209.1196069681237</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>65.32333847627811</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="K19" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L19" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M19" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N19" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O19" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P19" t="n">
         <v>1845.599623041337</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267237</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.075826767541</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V19" t="n">
-        <v>1040.36435937557</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W19" t="n">
-        <v>765.5119555480831</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="X19" t="n">
-        <v>522.9480589938881</v>
+        <v>909.3768827324808</v>
       </c>
       <c r="Y19" t="n">
-        <v>296.6052906836302</v>
+        <v>909.3768827324808</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1745.792697513689</v>
+        <v>1312.229525073126</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.891967526989</v>
+        <v>885.3287950864262</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K20" t="n">
-        <v>957.7672188505812</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.160237973755</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M20" t="n">
-        <v>1218.160237973755</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N20" t="n">
-        <v>1218.160237973755</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O20" t="n">
-        <v>1218.160237973755</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P20" t="n">
-        <v>1768.825772958194</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.64106180522</v>
+        <v>1732.077889364656</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L21" t="n">
-        <v>201.1892506764427</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M21" t="n">
-        <v>751.8547856608809</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N21" t="n">
-        <v>1302.520320645319</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1009.2747476664</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C22" t="n">
-        <v>837.3021845453159</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D22" t="n">
-        <v>673.9854116720866</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E22" t="n">
-        <v>507.7772058249401</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F22" t="n">
-        <v>335.9154315995005</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G22" t="n">
-        <v>169.6584618937326</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924814</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924814</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734062</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792433</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736641</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743915</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.883781619951</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299714</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221615</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U22" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V22" t="n">
-        <v>1943.199785070405</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="W22" t="n">
-        <v>1668.347381242918</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X22" t="n">
-        <v>1425.783484688724</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y22" t="n">
-        <v>1199.440716378466</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>471.3989550359474</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C23" t="n">
-        <v>44.49822504924753</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D23" t="n">
-        <v>44.49822504924753</v>
+        <v>954.869537369146</v>
       </c>
       <c r="E23" t="n">
-        <v>44.49822504924753</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064037</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N23" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O23" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>2104.695937904493</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W23" t="n">
-        <v>1708.30458820484</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X23" t="n">
-        <v>1296.584589372587</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y23" t="n">
-        <v>891.2473193274775</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="24">
@@ -6048,46 +6050,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K24" t="n">
-        <v>201.1892506764427</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L24" t="n">
-        <v>751.8547856608809</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.520320645319</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="N24" t="n">
-        <v>1302.520320645319</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="O24" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>792.1010868727071</v>
+        <v>884.1145108219147</v>
       </c>
       <c r="C25" t="n">
-        <v>620.1285237516231</v>
+        <v>712.1419477008307</v>
       </c>
       <c r="D25" t="n">
-        <v>456.8117508783938</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E25" t="n">
-        <v>290.6035450312473</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F25" t="n">
-        <v>290.6035450312473</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G25" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6169,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U25" t="n">
-        <v>2007.737591668684</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.026124276713</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W25" t="n">
-        <v>1451.173720449226</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X25" t="n">
-        <v>1208.609823895031</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2670555847728</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.668515703089</v>
+        <v>591.61426959383</v>
       </c>
       <c r="C26" t="n">
-        <v>893.7677857163897</v>
+        <v>591.61426959383</v>
       </c>
       <c r="D26" t="n">
-        <v>470.47516490139</v>
+        <v>591.61426959383</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924753</v>
+        <v>591.61426959383</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>166.4900877832303</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L26" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M26" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N26" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>2136.908229694272</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W26" t="n">
-        <v>1740.51687999462</v>
+        <v>1828.519902762722</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.51687999462</v>
+        <v>1416.79990393047</v>
       </c>
       <c r="Y26" t="n">
-        <v>1740.51687999462</v>
+        <v>1011.46263388536</v>
       </c>
     </row>
     <row r="27">
@@ -6285,31 +6287,31 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L27" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M27" t="n">
         <v>1145.829295018124</v>
@@ -6318,7 +6320,7 @@
         <v>1145.829295018124</v>
       </c>
       <c r="O27" t="n">
-        <v>1389.040378766978</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P27" t="n">
         <v>1389.040378766978</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>856.0490050883208</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C28" t="n">
-        <v>684.0764419672367</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D28" t="n">
-        <v>520.7596690940074</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E28" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F28" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K28" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L28" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M28" t="n">
         <v>1074.392270743914</v>
@@ -6403,31 +6405,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1850.674786246248</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U28" t="n">
-        <v>1570.490337746552</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.778870354581</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W28" t="n">
-        <v>1288.778870354581</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X28" t="n">
-        <v>1046.214973800386</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y28" t="n">
-        <v>1046.214973800386</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1407.853983585014</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C29" t="n">
-        <v>980.9532535983144</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D29" t="n">
-        <v>980.9532535983144</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E29" t="n">
-        <v>554.976313746172</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F29" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M29" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002562</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462377</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X29" t="n">
-        <v>1813.191253630124</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y29" t="n">
-        <v>1407.853983585014</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K30" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L30" t="n">
-        <v>595.1637600336857</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336857</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N30" t="n">
-        <v>669.8354755761777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O30" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P30" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q30" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1009.2747476664</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C31" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K31" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L31" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M31" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N31" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O31" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P31" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T31" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>1943.199785070405</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>1668.347381242918</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.783484688724</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y31" t="n">
-        <v>1199.440716378466</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>234.1248547200804</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C32" t="n">
-        <v>234.1248547200804</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D32" t="n">
-        <v>234.1248547200804</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E32" t="n">
-        <v>234.1248547200804</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F32" t="n">
-        <v>234.1248547200804</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G32" t="n">
-        <v>234.1248547200804</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L32" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N32" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O32" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W32" t="n">
-        <v>1471.030487888973</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X32" t="n">
-        <v>1059.31048905672</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y32" t="n">
-        <v>653.9732190116105</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>51.94486801115937</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J33" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K33" t="n">
-        <v>874.3078922751886</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L33" t="n">
-        <v>1307.021068682275</v>
+        <v>287.709308798102</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.021068682275</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.021068682275</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O33" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P33" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6877,31 +6879,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2177.87263914955</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T34" t="n">
-        <v>2177.87263914955</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U34" t="n">
-        <v>2177.87263914955</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>526.4132374723006</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>448.8372874597989</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C35" t="n">
-        <v>448.8372874597989</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D35" t="n">
-        <v>448.8372874597989</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E35" t="n">
-        <v>448.8372874597989</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F35" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L35" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M35" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N35" t="n">
-        <v>2059.098288819458</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>2019.775320910565</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.285906036814</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W35" t="n">
-        <v>1265.894556337161</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X35" t="n">
-        <v>854.1745575049085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y35" t="n">
-        <v>448.8372874597989</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K36" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L36" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="M36" t="n">
-        <v>866.8612493132769</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="N36" t="n">
-        <v>866.8612493132769</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="O36" t="n">
-        <v>1307.021068682275</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P36" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q36" t="n">
         <v>1771.166545545054</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>454.3200315065851</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C37" t="n">
-        <v>454.3200315065851</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D37" t="n">
-        <v>454.3200315065851</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E37" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F37" t="n">
         <v>454.3200315065851</v>
@@ -7090,16 +7092,16 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M37" t="n">
         <v>1074.392270743914</v>
@@ -7114,31 +7116,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>1811.436857207411</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U37" t="n">
-        <v>1531.252408707716</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V37" t="n">
-        <v>1249.540941315744</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W37" t="n">
-        <v>974.6885374882575</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
-        <v>732.1246409340625</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>505.7818726238046</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.668515703089</v>
+        <v>910.6348887030276</v>
       </c>
       <c r="C38" t="n">
-        <v>893.7677857163897</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="D38" t="n">
-        <v>470.47516490139</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L38" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M38" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N38" t="n">
-        <v>549.9383681074144</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2147.54052187192</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>2147.54052187192</v>
       </c>
       <c r="V38" t="n">
-        <v>2152.236878826872</v>
+        <v>2147.54052187192</v>
       </c>
       <c r="W38" t="n">
-        <v>2152.236878826872</v>
+        <v>2147.54052187192</v>
       </c>
       <c r="X38" t="n">
-        <v>1740.51687999462</v>
+        <v>1735.820523039667</v>
       </c>
       <c r="Y38" t="n">
-        <v>1740.51687999462</v>
+        <v>1330.483252994558</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C39" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>974.3357998282165</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L39" t="n">
-        <v>974.3357998282165</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M39" t="n">
-        <v>974.3357998282165</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N39" t="n">
-        <v>974.3357998282165</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O39" t="n">
-        <v>1128.080930530456</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P39" t="n">
-        <v>1678.746465514894</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q39" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R39" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S39" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T39" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U39" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V39" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W39" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X39" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y39" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1051.483930128627</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>879.5113670075434</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
-        <v>716.1945941343141</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>549.9863882871676</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
-        <v>378.124614061728</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G40" t="n">
-        <v>211.8676443559602</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H40" t="n">
-        <v>68.07137586411457</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M40" t="n">
         <v>1074.392270743914</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.213795394888</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="W40" t="n">
-        <v>1484.213795394888</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="X40" t="n">
-        <v>1241.649898840693</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y40" t="n">
-        <v>1241.649898840693</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>505.3720361579187</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="C41" t="n">
-        <v>505.3720361579187</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D41" t="n">
-        <v>505.3720361579187</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E41" t="n">
-        <v>79.39509630577632</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1637600336857</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M41" t="n">
-        <v>1006.023847611597</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N41" t="n">
-        <v>1006.023847611597</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O41" t="n">
-        <v>1556.689382596036</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2150.25327992253</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>1929.327708967163</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>1670.972799563575</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.483384689825</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W41" t="n">
-        <v>917.0920349901714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X41" t="n">
-        <v>505.3720361579187</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y41" t="n">
-        <v>505.3720361579187</v>
+        <v>1738.74033181852</v>
       </c>
     </row>
     <row r="42">
@@ -7470,28 +7472,28 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K42" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L42" t="n">
         <v>1145.829295018124</v>
@@ -7500,10 +7502,10 @@
         <v>1145.829295018124</v>
       </c>
       <c r="N42" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O42" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>980.8233032374651</v>
+        <v>1047.64686728427</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>875.674304163186</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>712.3575312899567</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>546.1493254428102</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>374.2875512173706</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>208.0305815116027</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>64.23431301975714</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7588,31 +7590,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>2007.737591668685</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U43" t="n">
-        <v>1727.553143168989</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.841675777018</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="W43" t="n">
-        <v>1170.989271949531</v>
+        <v>1706.719500860788</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.989271949531</v>
+        <v>1464.155604306594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.989271949531</v>
+        <v>1237.812835996336</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>903.0486561146067</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="C44" t="n">
-        <v>476.1479261279069</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="D44" t="n">
-        <v>476.1479261279069</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E44" t="n">
-        <v>476.1479261279069</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F44" t="n">
-        <v>476.1479261279069</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G44" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K44" t="n">
-        <v>475.942330131692</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="L44" t="n">
-        <v>475.942330131692</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M44" t="n">
-        <v>932.7282368344229</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N44" t="n">
-        <v>1389.514143537154</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O44" t="n">
-        <v>1389.514143537154</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P44" t="n">
-        <v>1389.514143537154</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1314.768654946859</v>
+        <v>1777.245312246748</v>
       </c>
       <c r="V44" t="n">
-        <v>1314.768654946859</v>
+        <v>1777.245312246748</v>
       </c>
       <c r="W44" t="n">
-        <v>1314.768654946859</v>
+        <v>1777.245312246748</v>
       </c>
       <c r="X44" t="n">
-        <v>903.0486561146067</v>
+        <v>1777.245312246748</v>
       </c>
       <c r="Y44" t="n">
-        <v>903.0486561146067</v>
+        <v>1777.245312246748</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K45" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L45" t="n">
-        <v>765.3953884431487</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="M45" t="n">
-        <v>765.3953884431487</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N45" t="n">
-        <v>765.3953884431487</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O45" t="n">
-        <v>932.027809635875</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P45" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>955.7067844524003</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>792.390011579171</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6013137552475</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>782.7871087254983</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1160.278619601534</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1515.706748281297</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1806.305960203198</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W46" t="n">
-        <v>1779.165748561582</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>481.0695277581962</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>498.8311686597659</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947801</v>
       </c>
       <c r="O2" t="n">
-        <v>361.4046720736148</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936674</v>
       </c>
       <c r="L3" t="n">
-        <v>382.424784075456</v>
+        <v>483.9149924745636</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>383.0815870834487</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8137,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608369</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>497.1645065551434</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947801</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>362.11217429437</v>
       </c>
       <c r="P5" t="n">
-        <v>361.589074527822</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>465.1567191589066</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745636</v>
       </c>
       <c r="M6" t="n">
-        <v>101.0427079326425</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825563</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608369</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.31013128815742</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>114.8034077411299</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160601</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>107.8670228313362</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>99.2889556338564</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8690,10 +8692,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>454.912099255668</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
@@ -8702,13 +8704,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P11" t="n">
-        <v>457.4303624918456</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,28 +8768,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>191.4123574746775</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8927,7 +8929,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
@@ -8939,10 +8941,10 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>361.589074527822</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9006,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>465.1567191589062</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>383.0064778735546</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>191.0656113368345</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
@@ -9100,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>24.61956276478495</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M17" t="n">
-        <v>114.6301304286942</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>480.7446103807745</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9246,25 +9248,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>382.4247840754562</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>464.5283265304016</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>60.32732450727401</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9337,7 +9339,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
         <v>24.61956276478495</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104035</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L20" t="n">
-        <v>301.3352940721928</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>480.0371081600193</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258255</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9480,19 +9482,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>180.7888499740227</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>464.100513539115</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9641,22 +9643,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>594.539855548217</v>
+        <v>548.8576414812758</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O23" t="n">
-        <v>452.4011488286621</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>176.6411400339856</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,19 +9877,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>453.322231905261</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
@@ -9954,22 +9956,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>268.839651084701</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>267.4386025673079</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10030,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L29" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>571.1449214366446</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10188,31 +10190,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>549.9687528290794</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N30" t="n">
-        <v>96.76900350898819</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10349,28 +10351,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P32" t="n">
-        <v>548.1209608588846</v>
+        <v>110.6369203512729</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>459.5991032870439</v>
+        <v>260.6609864990201</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10449,7 +10451,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O35" t="n">
-        <v>204.8788014195786</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
@@ -10659,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>89.24714193130015</v>
       </c>
       <c r="O36" t="n">
-        <v>467.7777678727251</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10762,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O39" t="n">
-        <v>178.470001542666</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204228</v>
+        <v>267.4386025673079</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L41" t="n">
-        <v>594.539855548217</v>
+        <v>87.05611188819455</v>
       </c>
       <c r="M41" t="n">
-        <v>452.4414523720699</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11139,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>179.6167914733347</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11236,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,16 +11299,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>479.2295883411379</v>
+        <v>569.5185628754297</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N44" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
@@ -11315,7 +11317,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>483.9149924745637</v>
+        <v>180.7888499740232</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>191.487466684572</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>68.37934289747318</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22601,16 +22603,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.5280043850991</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22705,22 +22707,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.66097540167894</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22759,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>58.8583330168731</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -22784,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>386.0949131374305</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>256.8632170357774</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -22957,7 +22959,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>53.69563757240819</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22990,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.60164079042643</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23021,16 +23023,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>309.3306541137073</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23081,13 +23083,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>248.9949814519883</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>107.5634614771284</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23227,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>53.69563757240839</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.6272398561813</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>309.3306541137073</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23321,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>28.94852398394025</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>107.5634614771284</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23464,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>134.3442484335291</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23558,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>275.6272398561812</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.1698679701245</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6623982539261</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23783,22 +23785,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>187.2596215283865</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23899,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>70.64365002182993</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.6064085940732</v>
+        <v>288.8973810047449</v>
       </c>
     </row>
     <row r="21">
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.4496713308875</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24184,10 +24186,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>114.3539344059676</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>341.6181830358612</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24263,16 +24265,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>234.9013593127082</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>63.30843903345755</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24443,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>279.523727679803</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24500,16 +24502,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>266.79152818459</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>85.41377692814672</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>315.7953039689844</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24743,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>348.9253100933457</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>117.2205539080136</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>341.6181830358611</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>107.159331366581</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24974,16 +24976,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>163.7887810877119</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>20.42505120001195</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -25208,19 +25210,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>52.68678807325836</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>342.6064085940741</v>
       </c>
     </row>
     <row r="36">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.3170863188977</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>142.1192919612623</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>281.9668908258638</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>75.43346327040841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>12.0386224215062</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25646,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.41222837114255</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>327.5774847511712</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>145.3874838926591</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>79.23215548632227</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>52.28863832742337</v>
+        <v>134.6220159274846</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25928,7 +25930,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26074,22 +26076,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3343440542548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>123.2669748412068</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>443928.7437457074</v>
+        <v>443928.7437457072</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443928.7437457074</v>
+        <v>443928.7437457073</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>443928.7437457074</v>
+        <v>443928.7437457073</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500222.1259315822</v>
+        <v>443928.7437457073</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500222.1259315824</v>
+        <v>500222.1259315821</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500222.1259315824</v>
+        <v>500222.1259315822</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500222.1259315824</v>
+        <v>500222.1259315822</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500222.1259315824</v>
+        <v>500222.1259315822</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443928.7437457074</v>
+        <v>500222.1259315822</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="C2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="D2" t="n">
         <v>105244.5587950954</v>
       </c>
       <c r="E2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="F2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="G2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="H2" t="n">
-        <v>118588.5340553546</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="I2" t="n">
         <v>118588.5340553546</v>
       </c>
       <c r="J2" t="n">
-        <v>118588.5340553547</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="K2" t="n">
         <v>118588.5340553546</v>
@@ -26353,7 +26355,7 @@
         <v>118588.5340553546</v>
       </c>
       <c r="P2" t="n">
-        <v>105244.5587950954</v>
+        <v>118588.5340553546</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>154625.7206181204</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25216.73195181803</v>
       </c>
       <c r="J3" t="n">
         <v>120722.5169427569</v>
@@ -26418,7 +26420,7 @@
         <v>23350.61219269669</v>
       </c>
       <c r="C4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="D4" t="n">
         <v>23350.61219269669</v>
@@ -26433,16 +26435,16 @@
         <v>23350.61219269669</v>
       </c>
       <c r="H4" t="n">
-        <v>26326.44296043128</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="I4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="J4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="K4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="L4" t="n">
         <v>26326.44296043127</v>
@@ -26451,13 +26453,13 @@
         <v>26326.44296043127</v>
       </c>
       <c r="N4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="O4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="P4" t="n">
-        <v>23350.61219269669</v>
+        <v>26326.44296043128</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>61680.71427022831</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>61680.71427022831</v>
       </c>
       <c r="D5" t="n">
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-134412.4882859501</v>
       </c>
       <c r="C6" t="n">
-        <v>20213.23233217037</v>
+        <v>20213.23233217036</v>
       </c>
       <c r="D6" t="n">
-        <v>20213.23233217037</v>
+        <v>20213.23233217036</v>
       </c>
       <c r="E6" t="n">
-        <v>53840.83233217036</v>
+        <v>53840.83233217035</v>
       </c>
       <c r="F6" t="n">
-        <v>53840.83233217036</v>
+        <v>53840.83233217034</v>
       </c>
       <c r="G6" t="n">
-        <v>53840.83233217039</v>
+        <v>53840.83233217032</v>
       </c>
       <c r="H6" t="n">
-        <v>32858.01720187989</v>
+        <v>53840.83233217035</v>
       </c>
       <c r="I6" t="n">
-        <v>58443.4400574952</v>
+        <v>33226.70810567723</v>
       </c>
       <c r="J6" t="n">
-        <v>-62279.07688526163</v>
+        <v>-62279.07688526162</v>
       </c>
       <c r="K6" t="n">
-        <v>58443.44005749523</v>
+        <v>58443.44005749526</v>
       </c>
       <c r="L6" t="n">
-        <v>58443.44005749523</v>
+        <v>58443.44005749522</v>
       </c>
       <c r="M6" t="n">
-        <v>58443.44005749523</v>
+        <v>58443.44005749525</v>
       </c>
       <c r="N6" t="n">
-        <v>58443.44005749523</v>
+        <v>58443.44005749525</v>
       </c>
       <c r="O6" t="n">
-        <v>58443.44005749523</v>
+        <v>58443.44005749522</v>
       </c>
       <c r="P6" t="n">
-        <v>53840.83233217036</v>
+        <v>58443.44005749524</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255732</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O2" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L3" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="M3" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>359.9096973612264</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>461.3999057603342</v>
-      </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>39.69056852337169</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>324.721214938346</v>
       </c>
       <c r="P5" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.69056852337169</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.69056852337247</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>85.46778899800287</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35410,10 +35412,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,13 +35424,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P11" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M12" t="n">
-        <v>168.3155769623496</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="N14" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="O14" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="P14" t="n">
         <v>324.0137127175907</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N14" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O14" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>359.9096973612266</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>169.1468514411333</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M17" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>359.9096973612266</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36057,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L20" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L21" t="n">
-        <v>158.2737632597931</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O23" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>155.2981118204439</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>415.0101894726381</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>533.7539620806206</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N30" t="n">
-        <v>75.42597529544652</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
         <v>228.8157587937749</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P32" t="n">
-        <v>510.5455990486533</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>437.0840165728143</v>
+        <v>238.1458997847906</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O35" t="n">
-        <v>167.4878420635545</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>67.90411371775849</v>
       </c>
       <c r="O36" t="n">
-        <v>444.6058781505029</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37482,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O39" t="n">
-        <v>155.2981118204437</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="M41" t="n">
-        <v>415.0101894726381</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37956,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>443.4649875463285</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3999057603342</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>168.3155769623498</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151720.0458732208</v>
+        <v>146060.2512967796</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654755</v>
+        <v>19282386.12654757</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357864</v>
+        <v>9802884.450357862</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5432738.938446768</v>
+        <v>5432738.938446769</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>350.6803517093765</v>
+        <v>173.6367412348449</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>85.43023522356287</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>137.6973304052482</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>35.62225731619051</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>111.5422858787866</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>68.83205621563006</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>397.1248796907494</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>143.4324547506683</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>34.79484432979879</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>90.90586913785523</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>111.5422858787864</v>
+        <v>194.7294434364516</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>129.8209566186241</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.79484432979879</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>160.5454463071765</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>162.7013447233718</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>131.0150252707982</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>164.5404183120838</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>166.6548991966265</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>141.3535193811976</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2022,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12723255529686</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>235.9126922181425</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>6.475483254325932</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.3865163399137</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2259,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>90.90586913785523</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2320,7 +2320,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>58.67748875058466</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>73.70641259348803</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8603782851906</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>120.7719441066429</v>
+        <v>49.63302297584683</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>128.7316226885107</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>24.1295862066223</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>49.87597792716608</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>74.03169761275359</v>
+        <v>345.9237910210456</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>55.27545046893127</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3246,7 +3246,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.6542894271434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>283.666074022365</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>231.5469784593237</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>76.59702328455086</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455528</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>228.0996351671467</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.2196117784912</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>73.70641259348736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>25.45817320599582</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>19.53872709080452</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>121.1493443820672</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>117.8487782760456</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>100.8123657859486</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818.0352999317454</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="C2" t="n">
-        <v>391.1345699450455</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>475.2419029331442</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M2" t="n">
-        <v>932.027809635875</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041336</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041336</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041336</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1229.755298763998</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1229.755298763998</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X2" t="n">
-        <v>818.0352999317454</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y2" t="n">
-        <v>818.0352999317454</v>
+        <v>632.1510044643213</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922819</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097866</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
         <v>90.28808569851708</v>
@@ -4406,40 +4406,40 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635575</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L3" t="n">
-        <v>950.4838058662882</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M3" t="n">
-        <v>1407.269712569019</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N3" t="n">
-        <v>1407.269712569019</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956633</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S3" t="n">
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590522</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123446</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1015.616490764048</v>
+        <v>602.1799749438289</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6439276429637</v>
+        <v>602.1799749438289</v>
       </c>
       <c r="D4" t="n">
-        <v>680.3271547697344</v>
+        <v>438.8632020705996</v>
       </c>
       <c r="E4" t="n">
-        <v>514.1189489225879</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F4" t="n">
-        <v>342.2571746971483</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G4" t="n">
-        <v>176.0002049913805</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.2056552989647</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933855</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636363</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439672</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119435</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041336</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041336</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560471</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786371</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1432.125227786371</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1432.125227786371</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W4" t="n">
-        <v>1432.125227786371</v>
+        <v>828.5227432540869</v>
       </c>
       <c r="X4" t="n">
-        <v>1432.125227786371</v>
+        <v>828.5227432540869</v>
       </c>
       <c r="Y4" t="n">
-        <v>1205.782459476113</v>
+        <v>602.1799749438289</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.89407055798887</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C5" t="n">
-        <v>72.89407055798887</v>
+        <v>998.8505287631069</v>
       </c>
       <c r="D5" t="n">
-        <v>72.89407055798887</v>
+        <v>575.5579079481072</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082673</v>
+        <v>149.5809680959647</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635575</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635575</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635575</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662883</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4591,28 +4591,28 @@
         <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T5" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1261.951848555522</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>904.4624336817717</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>904.4624336817717</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>492.7424348495189</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>492.7424348495189</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922819</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097866</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>475.2419029331442</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="L6" t="n">
-        <v>932.027809635875</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="M6" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N6" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041336</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041336</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S6" t="n">
         <v>1764.275375602591</v>
@@ -4688,10 +4688,10 @@
         <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590522</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123446</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.2056552989647</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933855</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636363</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439672</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119435</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041336</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041336</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1776.072293530599</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1532.732945756499</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1252.548497256803</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V7" t="n">
-        <v>970.8370298648322</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W7" t="n">
-        <v>695.9846260373453</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X7" t="n">
-        <v>453.4207294831504</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y7" t="n">
-        <v>227.0779611728924</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>463.8127224475267</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="C8" t="n">
-        <v>36.91199246082673</v>
+        <v>735.91661309866</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082673</v>
+        <v>735.91661309866</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082673</v>
+        <v>735.91661309866</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
         <v>1271.957808655251</v>
@@ -4831,25 +4831,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="W8" t="n">
-        <v>1700.718355616419</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="X8" t="n">
-        <v>1288.998356784166</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="Y8" t="n">
-        <v>883.6610867390567</v>
+        <v>1162.81734308536</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>772.8420314050604</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N9" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
         <v>1763.580312956633</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373311</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162471</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>576.3852496430178</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958713</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>238.3152695704318</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>72.05829986466389</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1425.751258749807</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="C11" t="n">
-        <v>998.8505287631067</v>
+        <v>659.5853398245365</v>
       </c>
       <c r="D11" t="n">
-        <v>575.557907948107</v>
+        <v>659.5853398245365</v>
       </c>
       <c r="E11" t="n">
-        <v>149.5809680959645</v>
+        <v>233.6083999723941</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>814.4714747539723</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L11" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M11" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O11" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P11" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
         <v>1728.043288159434</v>
@@ -5068,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>1086.486069811236</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M12" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N12" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O12" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P12" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>911.6745856373311</v>
+        <v>650.0213093336545</v>
       </c>
       <c r="C13" t="n">
-        <v>739.7020225162471</v>
+        <v>478.0487462125704</v>
       </c>
       <c r="D13" t="n">
-        <v>576.3852496430178</v>
+        <v>478.0487462125704</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1770437958713</v>
+        <v>311.840540365424</v>
       </c>
       <c r="F13" t="n">
-        <v>238.3152695704318</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G13" t="n">
-        <v>72.05829986466389</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>985.6798532447758</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W13" t="n">
-        <v>1570.74721921385</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="X13" t="n">
-        <v>1328.183322659655</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1101.840554349397</v>
+        <v>840.1872780457202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1028.542354163974</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C14" t="n">
-        <v>1028.542354163974</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D14" t="n">
-        <v>1028.542354163974</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.542354163974</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F14" t="n">
-        <v>603.4181723533745</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G14" t="n">
-        <v>199.0791099428232</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M14" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N14" t="n">
-        <v>950.4838058662883</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O14" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P14" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
         <v>1728.043288159434</v>
@@ -5305,25 +5305,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>740.1176410319016</v>
       </c>
       <c r="X14" t="n">
-        <v>1433.879624209084</v>
+        <v>740.1176410319016</v>
       </c>
       <c r="Y14" t="n">
-        <v>1028.542354163974</v>
+        <v>334.7803709867919</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C15" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L15" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M15" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N15" t="n">
-        <v>1306.794406253903</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O15" t="n">
-        <v>1763.580312956633</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P15" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q15" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5387,7 +5387,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U15" t="n">
         <v>1437.627243819906</v>
@@ -5396,13 +5396,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1020.32454672534</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="C16" t="n">
-        <v>848.3519836042556</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="D16" t="n">
-        <v>685.0352107310263</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8270048838798</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="F16" t="n">
-        <v>346.9652306584402</v>
+        <v>169.2504018252693</v>
       </c>
       <c r="G16" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
         <v>822.0807715636367</v>
@@ -5460,28 +5460,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="W16" t="n">
-        <v>1679.397180301858</v>
+        <v>1000.184809627227</v>
       </c>
       <c r="X16" t="n">
-        <v>1436.833283747663</v>
+        <v>757.6209130730325</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.490515437405</v>
+        <v>531.2781447627746</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.8127224475267</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C17" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D17" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L17" t="n">
-        <v>493.6978991635576</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="M17" t="n">
-        <v>493.6978991635576</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N17" t="n">
-        <v>932.7282368344228</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O17" t="n">
-        <v>1389.514143537154</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P17" t="n">
         <v>1389.514143537154</v>
@@ -5542,25 +5542,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V17" t="n">
-        <v>1677.261341024542</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W17" t="n">
-        <v>1280.869991324889</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X17" t="n">
-        <v>869.1499924926363</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y17" t="n">
-        <v>463.8127224475267</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>393.2225928484411</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M18" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N18" t="n">
-        <v>1306.794406253903</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O18" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P18" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q18" t="n">
         <v>1763.580312956633</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.2109140204152</v>
+        <v>948.231340759624</v>
       </c>
       <c r="C19" t="n">
-        <v>547.2383508993312</v>
+        <v>776.25877763854</v>
       </c>
       <c r="D19" t="n">
-        <v>547.2383508993312</v>
+        <v>612.9420047653107</v>
       </c>
       <c r="E19" t="n">
-        <v>547.2383508993312</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F19" t="n">
-        <v>375.3765766738916</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G19" t="n">
-        <v>209.1196069681237</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H19" t="n">
-        <v>65.32333847627811</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5700,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.125227786371</v>
+        <v>1607.303974336142</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.940779286676</v>
+        <v>1607.303974336142</v>
       </c>
       <c r="V19" t="n">
-        <v>1151.940779286676</v>
+        <v>1607.303974336142</v>
       </c>
       <c r="W19" t="n">
-        <v>1151.940779286676</v>
+        <v>1607.303974336142</v>
       </c>
       <c r="X19" t="n">
-        <v>909.3768827324808</v>
+        <v>1364.740077781948</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.3768827324808</v>
+        <v>1138.39730947169</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1312.229525073126</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="C20" t="n">
-        <v>885.3287950864262</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="D20" t="n">
-        <v>462.0361742714265</v>
+        <v>497.7858035694979</v>
       </c>
       <c r="E20" t="n">
-        <v>462.0361742714265</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M20" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N20" t="n">
-        <v>932.0278096358751</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O20" t="n">
-        <v>1388.813716338606</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P20" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>1769.172744187367</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X20" t="n">
-        <v>1845.599623041337</v>
+        <v>1329.512330082224</v>
       </c>
       <c r="Y20" t="n">
-        <v>1732.077889364656</v>
+        <v>924.1750600371148</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>493.6978991635576</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L21" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M21" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N21" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O21" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P21" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1020.32454672534</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C22" t="n">
-        <v>848.3519836042556</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D22" t="n">
-        <v>685.0352107310263</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E22" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F22" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G22" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P22" t="n">
         <v>1845.599623041337</v>
@@ -5934,28 +5934,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U22" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V22" t="n">
-        <v>1679.397180301858</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="W22" t="n">
-        <v>1679.397180301858</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="X22" t="n">
-        <v>1436.833283747663</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1210.490515437405</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1805.062888170846</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="C23" t="n">
-        <v>1378.162158184146</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D23" t="n">
-        <v>954.869537369146</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E23" t="n">
-        <v>528.8925975170035</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F23" t="n">
-        <v>103.7684157064037</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>549.9383681074139</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M23" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N23" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O23" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2150.460330650772</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>2150.460330650772</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462376</v>
+        <v>2150.460330650772</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462376</v>
+        <v>2150.460330650772</v>
       </c>
       <c r="X23" t="n">
-        <v>2224.911252462376</v>
+        <v>1738.74033181852</v>
       </c>
       <c r="Y23" t="n">
-        <v>2224.911252462376</v>
+        <v>1738.74033181852</v>
       </c>
     </row>
     <row r="24">
@@ -6050,40 +6050,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K24" t="n">
-        <v>51.94486801115936</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L24" t="n">
-        <v>51.94486801115936</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M24" t="n">
-        <v>51.94486801115936</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N24" t="n">
-        <v>205.6899987133988</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O24" t="n">
-        <v>756.3555336978368</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P24" t="n">
         <v>1307.021068682275</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>884.1145108219147</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>712.1419477008307</v>
+        <v>210.706430896394</v>
       </c>
       <c r="D25" t="n">
-        <v>548.8251748276014</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E25" t="n">
-        <v>382.6169689804549</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F25" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6174,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
-        <v>2099.751015617891</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1818.03954822592</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>1543.187144398433</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>1300.623247844238</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>1074.28047953398</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>591.61426959383</v>
+        <v>943.9021523586592</v>
       </c>
       <c r="C26" t="n">
-        <v>591.61426959383</v>
+        <v>943.9021523586592</v>
       </c>
       <c r="D26" t="n">
-        <v>591.61426959383</v>
+        <v>520.6095315436595</v>
       </c>
       <c r="E26" t="n">
-        <v>591.61426959383</v>
+        <v>94.63259169151706</v>
       </c>
       <c r="F26" t="n">
-        <v>166.4900877832303</v>
+        <v>94.63259169151706</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336854</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M26" t="n">
-        <v>1145.829295018124</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N26" t="n">
-        <v>1696.494830002561</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W26" t="n">
-        <v>1828.519902762722</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X26" t="n">
-        <v>1416.79990393047</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="Y26" t="n">
-        <v>1011.46263388536</v>
+        <v>943.9021523586592</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M27" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N27" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O27" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
         <v>1853.185855629757</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>675.9169201046697</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K28" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L28" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
         <v>1074.392270743914</v>
@@ -6411,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U28" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V28" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.792697513689</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.891967526989</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D29" t="n">
-        <v>895.5993467119897</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E29" t="n">
-        <v>469.6224068598473</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>595.1637600336854</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336854</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N29" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O29" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462376</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462376</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462376</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="X29" t="n">
-        <v>2165.64106180522</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="Y29" t="n">
-        <v>2165.64106180522</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>838.37484378254</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989112</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C31" t="n">
-        <v>96.60472747782725</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D31" t="n">
-        <v>44.49822504924752</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="E31" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6642,31 +6642,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109769</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2150.131759924241</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="C32" t="n">
-        <v>1723.231029937541</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="D32" t="n">
-        <v>1299.938409122541</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E32" t="n">
-        <v>873.9614692703988</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F32" t="n">
-        <v>448.8372874597989</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N32" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O32" t="n">
-        <v>1696.494830002561</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P32" t="n">
-        <v>1768.825772958193</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462376</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X32" t="n">
-        <v>2224.911252462376</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y32" t="n">
-        <v>2224.911252462376</v>
+        <v>833.1521294446566</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>51.94486801115936</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>287.709308798102</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>838.37484378254</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N33" t="n">
-        <v>838.37484378254</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O33" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P33" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>526.4132374723006</v>
+        <v>776.6315263011413</v>
       </c>
       <c r="C34" t="n">
-        <v>526.4132374723006</v>
+        <v>604.6589631800573</v>
       </c>
       <c r="D34" t="n">
-        <v>526.4132374723006</v>
+        <v>604.6589631800573</v>
       </c>
       <c r="E34" t="n">
-        <v>526.4132374723006</v>
+        <v>438.4507573329108</v>
       </c>
       <c r="F34" t="n">
-        <v>354.551463246861</v>
+        <v>266.5889831074712</v>
       </c>
       <c r="G34" t="n">
-        <v>188.2944935410931</v>
+        <v>100.3320134017034</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6867,43 +6867,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S34" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T34" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U34" t="n">
-        <v>1531.252408707715</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V34" t="n">
-        <v>1249.540941315744</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W34" t="n">
-        <v>974.6885374882565</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="X34" t="n">
-        <v>732.1246409340616</v>
+        <v>966.7974950132069</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.4132374723006</v>
+        <v>966.7974950132069</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1745.792697513689</v>
+        <v>792.8272141938551</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.891967526989</v>
+        <v>365.9264842071552</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>365.9264842071552</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>365.9264842071552</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336854</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N35" t="n">
-        <v>1696.494830002561</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462376</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462376</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X35" t="n">
-        <v>2224.911252462376</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="Y35" t="n">
-        <v>2165.64106180522</v>
+        <v>1212.675578485385</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>51.94486801115936</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>51.94486801115936</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>669.8354755761782</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
         <v>1771.166545545054</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
         <v>1074.392270743914</v>
@@ -7122,25 +7122,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>910.6348887030276</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="C38" t="n">
-        <v>483.7341587163277</v>
+        <v>703.508243687447</v>
       </c>
       <c r="D38" t="n">
-        <v>483.7341587163277</v>
+        <v>703.508243687447</v>
       </c>
       <c r="E38" t="n">
-        <v>483.7341587163277</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F38" t="n">
-        <v>483.7341587163277</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G38" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H38" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K38" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L38" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M38" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N38" t="n">
-        <v>957.767218850581</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2147.54052187192</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>2147.54052187192</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V38" t="n">
-        <v>2147.54052187192</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W38" t="n">
-        <v>2147.54052187192</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X38" t="n">
-        <v>1735.820523039667</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="Y38" t="n">
-        <v>1330.483252994558</v>
+        <v>1130.408973674147</v>
       </c>
     </row>
     <row r="39">
@@ -7235,43 +7235,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336854</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N39" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O39" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P39" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>150.4616153982907</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S40" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T40" t="n">
-        <v>2054.776204981511</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U40" t="n">
-        <v>1774.591756481815</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V40" t="n">
-        <v>1774.591756481815</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W40" t="n">
-        <v>1774.591756481815</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1318.891967526989</v>
+        <v>1299.030638261499</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.891967526989</v>
+        <v>872.1299082747987</v>
       </c>
       <c r="D41" t="n">
-        <v>895.5993467119897</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E41" t="n">
-        <v>469.6224068598473</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K41" t="n">
-        <v>957.767218850581</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L41" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M41" t="n">
-        <v>1556.689382596035</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N41" t="n">
-        <v>2107.354917580473</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O41" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2135.800533494204</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>1914.874962538837</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462376</v>
+        <v>1656.520053135249</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462376</v>
+        <v>1299.030638261499</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462376</v>
+        <v>1299.030638261499</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.191253630123</v>
+        <v>1299.030638261499</v>
       </c>
       <c r="Y41" t="n">
-        <v>1738.74033181852</v>
+        <v>1299.030638261499</v>
       </c>
     </row>
     <row r="42">
@@ -7472,40 +7472,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>1145.829295018124</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M42" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N42" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O42" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
         <v>1853.185855629757</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1047.64686728427</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C43" t="n">
-        <v>875.674304163186</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D43" t="n">
-        <v>712.3575312899567</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E43" t="n">
-        <v>546.1493254428102</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F43" t="n">
-        <v>374.2875512173706</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G43" t="n">
-        <v>208.0305815116027</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H43" t="n">
-        <v>64.23431301975714</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N43" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P43" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T43" t="n">
-        <v>1981.571904688275</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.571904688275</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V43" t="n">
-        <v>1981.571904688275</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W43" t="n">
-        <v>1706.719500860788</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X43" t="n">
-        <v>1464.155604306594</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.812835996336</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1357.396947955218</v>
+        <v>768.3435434273551</v>
       </c>
       <c r="C44" t="n">
-        <v>930.4962179685185</v>
+        <v>768.3435434273551</v>
       </c>
       <c r="D44" t="n">
-        <v>930.4962179685185</v>
+        <v>768.3435434273551</v>
       </c>
       <c r="E44" t="n">
-        <v>504.5192781163761</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F44" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G44" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>572.9146475090616</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>1123.5801824935</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M44" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N44" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
         <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1777.245312246748</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1777.245312246748</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W44" t="n">
-        <v>1777.245312246748</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X44" t="n">
-        <v>1777.245312246748</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y44" t="n">
-        <v>1777.245312246748</v>
+        <v>768.3435434273551</v>
       </c>
     </row>
     <row r="45">
@@ -7715,40 +7715,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>201.1892506764432</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524003</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D46" t="n">
-        <v>792.390011579171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320245</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7815,7 +7815,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
         <v>1451.88378161995</v>
@@ -7824,34 +7824,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T46" t="n">
-        <v>1981.571904688276</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U46" t="n">
-        <v>1701.38745618858</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V46" t="n">
-        <v>1419.675988796609</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W46" t="n">
-        <v>1419.675988796609</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.675988796609</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>481.0695277581962</v>
+        <v>458.1670431142373</v>
       </c>
       <c r="M2" t="n">
-        <v>498.8311686597659</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947801</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936674</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745636</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>383.0815870834487</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608369</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551434</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8227,13 +8227,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947801</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>362.11217429437</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>465.1567191589066</v>
+        <v>100.3451612536475</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745636</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825563</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608369</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8385,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>457.1346235160601</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8534,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345437</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>99.2889556338564</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8622,16 +8622,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O10" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>454.912099255668</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
@@ -8704,13 +8704,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>465.8542658379013</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425365</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8792,7 +8792,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>335.7669652041454</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
@@ -8935,19 +8935,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163582</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P14" t="n">
-        <v>361.589074527822</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>383.0064778735546</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>183.9656051068834</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>191.0656113368345</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>170.5153675464292</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929571</v>
+        <v>115.5109099618853</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>382.4247840754562</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738758</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425365</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>60.32732450727401</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M19" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
@@ -9342,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>480.0371081600193</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>112.2315174240589</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>483.9149924745637</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>464.100513539115</v>
+        <v>99.28895563385584</v>
       </c>
       <c r="O21" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9576,7 +9576,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q22" t="n">
         <v>24.61956276478495</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>548.8576414812758</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O23" t="n">
         <v>37.3909593560241</v>
@@ -9719,7 +9719,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,13 +9728,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>176.6411400339856</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204226</v>
+        <v>177.0689530252722</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482168</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N26" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>452.4011488286619</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298235</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9971,10 +9971,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>267.4386025673079</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104032</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O29" t="n">
-        <v>571.1449214366444</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>549.9687528290794</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10211,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
@@ -10360,13 +10360,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.50743595004</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P32" t="n">
-        <v>110.6369203512729</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10427,31 +10427,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>260.6609864990201</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378161</v>
+        <v>372.8619081923508</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>571.1449214366444</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10664,28 +10664,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>89.24714193130015</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
@@ -10834,13 +10834,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.50743595004</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O38" t="n">
-        <v>181.6704383876108</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>267.4386025673079</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>87.05611188819455</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150257</v>
+        <v>110.4928214404736</v>
       </c>
       <c r="N41" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>180.0446044646224</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>569.5185628754297</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5398555482169</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>180.7888499740232</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204227</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>68.37934289747318</v>
+        <v>245.4229533720048</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22603,19 +22603,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>79.1158885651121</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>4.66097540167894</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22764,10 +22764,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>386.0949131374305</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>309.3306541137071</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>99.60164079042643</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,13 +23032,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>23.74806030174432</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>248.9949814519883</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>107.5634614771284</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>150.0000851585038</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -23241,10 +23241,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>309.3306541137073</v>
+        <v>226.1434965560421</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>40.32219986456107</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>107.5634614771284</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>134.3442484335291</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>229.7260914792847</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>33.57937473791199</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>107.5634614771283</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>187.2596215283865</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>251.073916821459</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>70.64365002182993</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>4.993262078216475</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>412.5842113525238</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -23989,7 +23989,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.8973810047449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -24186,13 +24186,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>114.3539344059676</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>149.2323884507977</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>341.6181830358612</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24259,7 +24259,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>145.0099026523251</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
@@ -24271,7 +24271,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>66.39245920468254</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>279.523727679803</v>
+        <v>350.662648810599</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24496,10 +24496,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>41.52121480136242</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>79.19403497896869</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -24745,7 +24745,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>348.9253100933457</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>114.6701458615089</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.6181830358611</v>
+        <v>69.72608962756914</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>87.08285533799588</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>20.42505120001195</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>137.2068659701287</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25174,7 +25174,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>342.6064085940741</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>190.1701919942973</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>142.1192919612623</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>59.6423673431222</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>12.0386224215062</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>15.1040094070998</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>327.5774847511712</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>136.2254319385012</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>79.23215548632227</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>134.6220159274846</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>283.435119068613</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>63.52994056050366</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.2669748412068</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>443928.7437457072</v>
+        <v>443928.7437457073</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>443928.7437457072</v>
+        <v>443928.7437457074</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>443928.7437457073</v>
+        <v>443928.7437457072</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443928.7437457073</v>
+        <v>443928.7437457072</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443928.7437457073</v>
+        <v>443928.7437457074</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>443928.7437457073</v>
+        <v>443928.7437457072</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500222.1259315821</v>
+        <v>500222.1259315824</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500222.1259315822</v>
+        <v>500222.1259315824</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500222.1259315822</v>
+        <v>500222.1259315824</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500222.1259315822</v>
+        <v>500222.1259315824</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500222.1259315822</v>
+        <v>500222.1259315824</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500222.1259315822</v>
+        <v>500222.1259315824</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>500222.1259315822</v>
+        <v>500222.1259315825</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>105244.5587950953</v>
       </c>
       <c r="C2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="D2" t="n">
         <v>105244.5587950954</v>
       </c>
       <c r="E2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="F2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="G2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="H2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="I2" t="n">
         <v>118588.5340553546</v>
@@ -26355,7 +26355,7 @@
         <v>118588.5340553546</v>
       </c>
       <c r="P2" t="n">
-        <v>118588.5340553546</v>
+        <v>118588.5340553547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181204</v>
+        <v>154625.7206181205</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25216.73195181803</v>
+        <v>25216.73195181807</v>
       </c>
       <c r="J3" t="n">
         <v>120722.5169427569</v>
@@ -26420,7 +26420,7 @@
         <v>23350.61219269669</v>
       </c>
       <c r="C4" t="n">
-        <v>23350.61219269668</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="D4" t="n">
         <v>23350.61219269669</v>
@@ -26435,28 +26435,28 @@
         <v>23350.61219269669</v>
       </c>
       <c r="H4" t="n">
-        <v>23350.61219269668</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="I4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="J4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="K4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="L4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="M4" t="n">
         <v>26326.44296043127</v>
       </c>
       <c r="N4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="O4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="P4" t="n">
         <v>26326.44296043128</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022831</v>
+        <v>61680.71427022832</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022831</v>
+        <v>61680.71427022832</v>
       </c>
       <c r="D5" t="n">
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134412.4882859501</v>
+        <v>-135116.8481074417</v>
       </c>
       <c r="C6" t="n">
-        <v>20213.23233217036</v>
+        <v>19508.87251067885</v>
       </c>
       <c r="D6" t="n">
-        <v>20213.23233217036</v>
+        <v>19508.87251067891</v>
       </c>
       <c r="E6" t="n">
-        <v>53840.83233217035</v>
+        <v>53136.47251067886</v>
       </c>
       <c r="F6" t="n">
-        <v>53840.83233217034</v>
+        <v>53136.47251067885</v>
       </c>
       <c r="G6" t="n">
-        <v>53840.83233217032</v>
+        <v>53136.47251067888</v>
       </c>
       <c r="H6" t="n">
-        <v>53840.83233217035</v>
+        <v>53136.47251067889</v>
       </c>
       <c r="I6" t="n">
-        <v>33226.70810567723</v>
+        <v>32617.66239318753</v>
       </c>
       <c r="J6" t="n">
-        <v>-62279.07688526162</v>
+        <v>-62888.12259775132</v>
       </c>
       <c r="K6" t="n">
-        <v>58443.44005749526</v>
+        <v>57834.39434500557</v>
       </c>
       <c r="L6" t="n">
-        <v>58443.44005749522</v>
+        <v>57834.39434500558</v>
       </c>
       <c r="M6" t="n">
-        <v>58443.44005749525</v>
+        <v>57834.39434500555</v>
       </c>
       <c r="N6" t="n">
-        <v>58443.44005749525</v>
+        <v>57834.39434500557</v>
       </c>
       <c r="O6" t="n">
-        <v>58443.44005749522</v>
+        <v>57834.39434500551</v>
       </c>
       <c r="P6" t="n">
-        <v>58443.44005749524</v>
+        <v>57834.3943450056</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
-        <v>442.7574853255732</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>359.9096973612264</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337169</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>324.721214938346</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>442.7574853255733</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337169</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35105,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35254,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>77.94592742031473</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35342,16 +35342,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O10" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>419.1474984608586</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,13 +35424,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M12" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>313.1915253126596</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35585,10 +35585,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P14" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>359.9096973612266</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>169.1468514411333</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>147.9399276549434</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603341</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>359.9096973612266</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.69056852337214</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404402</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>442.7574853255733</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="O21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36296,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>510.5455990486529</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>155.2981118204439</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P24" t="n">
-        <v>556.2278131155939</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>245.6677613624792</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O29" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>527.4536661148499</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37080,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155939</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P32" t="n">
-        <v>73.06155854104156</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37147,31 +37147,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>238.1458997847906</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155939</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M34" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N34" t="n">
         <v>381.3045564404402</v>
@@ -37247,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>67.90411371775849</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155939</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O38" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>245.6677613624792</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155939</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38192,7 +38192,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q46" t="n">
         <v>128.2829598391535</v>
